--- a/repo-permissions-sample/data.xlsx
+++ b/repo-permissions-sample/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\repos-alternos\azure\Azure-DevOps\repo-permissions-sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{44051E05-F471-427A-A1C6-6E0C7EE80707}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{718ECB8E-82D3-49D3-827E-A77B25A27C7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="488">
   <si>
     <t>projectName</t>
   </si>
@@ -1448,12 +1448,21 @@
     <t>feature/victor.matos/eleccionesSGS_mejorar_padron_electoral</t>
   </si>
   <si>
+    <t>(blank)</t>
+  </si>
+  <si>
     <t>Grand Total</t>
   </si>
   <si>
     <t>Count of branch</t>
   </si>
   <si>
+    <t>&lt;12/02/2021</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
     <t>Qtr1</t>
   </si>
   <si>
@@ -1467,6 +1476,15 @@
   </si>
   <si>
     <t>2022</t>
+  </si>
+  <si>
+    <t>&lt;12/02/2021 Total</t>
+  </si>
+  <si>
+    <t>2021 Total</t>
+  </si>
+  <si>
+    <t>2022 Total</t>
   </si>
   <si>
     <t>Years</t>
@@ -2006,7 +2024,91 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="286">
+  <dxfs count="298">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -6779,12 +6881,12 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A4:G54" firstHeaderRow="1" firstDataRow="2" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
+  <location ref="A4:O60" firstHeaderRow="1" firstDataRow="3" firstDataCol="2"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
       <items count="53">
         <item sd="0" x="34"/>
-        <item x="13"/>
+        <item sd="0" x="13"/>
         <item sd="0" x="7"/>
         <item sd="0" x="28"/>
         <item sd="0" x="48"/>
@@ -6824,10 +6926,10 @@
         <item sd="0" x="32"/>
         <item sd="0" x="9"/>
         <item sd="0" x="26"/>
-        <item x="3"/>
-        <item x="5"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="5"/>
         <item sd="0" x="17"/>
-        <item x="6"/>
+        <item sd="0" x="6"/>
         <item sd="0" x="10"/>
         <item sd="0" x="14"/>
         <item sd="0" x="40"/>
@@ -7033,7 +7135,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisPage" compact="0" outline="0" showAll="0">
+    <pivotField axis="axisCol" compact="0" outline="0" showAll="0">
       <items count="5">
         <item x="0"/>
         <item x="1"/>
@@ -7047,7 +7149,7 @@
     <field x="0"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="49">
+  <rowItems count="54">
     <i>
       <x v="17"/>
     </i>
@@ -7073,13 +7175,13 @@
       <x v="16"/>
     </i>
     <i>
+      <x v="12"/>
+    </i>
+    <i>
       <x v="37"/>
     </i>
     <i>
       <x v="27"/>
-    </i>
-    <i>
-      <x v="12"/>
     </i>
     <i>
       <x v="38"/>
@@ -7089,6 +7191,9 @@
     </i>
     <i>
       <x v="31"/>
+    </i>
+    <i>
+      <x v="8"/>
     </i>
     <i>
       <x v="18"/>
@@ -7106,124 +7211,162 @@
       <x v="25"/>
     </i>
     <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
       <x v="3"/>
+    </i>
+    <i>
+      <x v="39"/>
     </i>
     <i>
       <x/>
     </i>
     <i>
-      <x v="8"/>
+      <x v="51"/>
     </i>
     <i>
-      <x v="51"/>
+      <x v="24"/>
     </i>
     <i>
       <x v="26"/>
     </i>
     <i>
-      <x v="24"/>
+      <x v="41"/>
     </i>
     <i>
-      <x v="45"/>
+      <x v="7"/>
     </i>
     <i>
       <x v="15"/>
     </i>
     <i>
-      <x v="19"/>
+      <x v="30"/>
     </i>
     <i>
       <x v="29"/>
     </i>
     <i>
+      <x v="33"/>
+    </i>
+    <i>
       <x v="5"/>
     </i>
     <i>
-      <x v="30"/>
+      <x v="34"/>
     </i>
     <i>
-      <x v="46"/>
+      <x v="19"/>
     </i>
     <i>
-      <x v="33"/>
+      <x v="2"/>
     </i>
     <i>
-      <x v="14"/>
+      <x v="13"/>
     </i>
     <i>
-      <x v="7"/>
+      <x v="32"/>
     </i>
     <i>
       <x v="6"/>
     </i>
     <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
       <x v="47"/>
     </i>
     <i>
-      <x v="13"/>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="4"/>
     </i>
     <i>
       <x v="43"/>
     </i>
     <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="32"/>
+      <x v="44"/>
     </i>
     <i>
       <x v="11"/>
     </i>
     <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
       <x v="40"/>
     </i>
     <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="20"/>
+      <x v="52"/>
+      <x v="148"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colFields count="1">
+  <colFields count="2">
+    <field x="6"/>
     <field x="5"/>
   </colFields>
-  <colItems count="5">
+  <colItems count="13">
     <i>
+      <x/>
+      <x/>
+    </i>
+    <i t="default">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="default">
       <x v="1"/>
     </i>
     <i>
       <x v="2"/>
+      <x v="1"/>
     </i>
-    <i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
       <x v="3"/>
     </i>
-    <i>
+    <i r="1">
       <x v="4"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </colItems>
-  <pageFields count="1">
-    <pageField fld="6" item="2" hier="-1"/>
-  </pageFields>
   <dataFields count="1">
     <dataField name="Count of branch" fld="3" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="24">
+    <format dxfId="36">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -7235,7 +7378,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -7247,7 +7390,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="38">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -7263,7 +7406,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -7275,7 +7418,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="40">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -7290,7 +7433,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -7612,679 +7755,1121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G54"/>
+  <dimension ref="A4:O60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="J60" sqref="J60:M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="B2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D5" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="E5" t="s">
         <v>477</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
+        <v>484</v>
+      </c>
+      <c r="J5" t="s">
+        <v>482</v>
+      </c>
+      <c r="N5" t="s">
+        <v>485</v>
+      </c>
+      <c r="O5" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>476</v>
+      </c>
+      <c r="E6" t="s">
         <v>478</v>
       </c>
-      <c r="G5" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="F6" t="s">
+        <v>479</v>
+      </c>
+      <c r="G6" t="s">
+        <v>480</v>
+      </c>
+      <c r="H6" t="s">
+        <v>481</v>
+      </c>
+      <c r="J6" t="s">
+        <v>478</v>
+      </c>
+      <c r="K6" t="s">
+        <v>479</v>
+      </c>
+      <c r="L6" t="s">
+        <v>480</v>
+      </c>
+      <c r="M6" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="3">
+      <c r="K7" s="3">
         <v>1</v>
       </c>
-      <c r="E6" s="3">
+      <c r="L7" s="3">
         <v>11</v>
       </c>
-      <c r="F6" s="3">
+      <c r="M7" s="3">
         <v>44</v>
       </c>
-      <c r="G6" s="3">
+      <c r="N7" s="3">
         <v>57</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="O7" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3">
         <v>2</v>
       </c>
-      <c r="D7" s="3">
+      <c r="K8" s="3">
         <v>2</v>
       </c>
-      <c r="E7" s="3">
+      <c r="L8" s="3">
         <v>13</v>
       </c>
-      <c r="F7" s="3">
+      <c r="M8" s="3">
         <v>10</v>
       </c>
-      <c r="G7" s="3">
+      <c r="N8" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="O8" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="3">
-        <v>3</v>
-      </c>
-      <c r="D8" s="3">
-        <v>9</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>8</v>
-      </c>
-      <c r="G8" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>16</v>
-      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3">
+        <v>3</v>
+      </c>
+      <c r="K9" s="3">
+        <v>9</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3">
+        <v>8</v>
+      </c>
+      <c r="N9" s="3">
+        <v>21</v>
+      </c>
+      <c r="O9" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3">
         <v>16</v>
       </c>
-      <c r="G10" s="3">
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3">
+        <v>17</v>
+      </c>
+      <c r="O10" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>322</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="N11" s="3">
+        <v>16</v>
+      </c>
+      <c r="O11" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3">
         <v>6</v>
       </c>
-      <c r="D11" s="3">
+      <c r="K12" s="3">
         <v>2</v>
       </c>
-      <c r="E11" s="3">
+      <c r="L12" s="3">
         <v>2</v>
       </c>
-      <c r="F11" s="3">
+      <c r="M12" s="3">
         <v>3</v>
       </c>
-      <c r="G11" s="3">
+      <c r="N12" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="O12" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>20</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>318</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3">
-        <v>10</v>
-      </c>
-      <c r="G13" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>2</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3">
+        <v>8</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3">
+        <v>3</v>
+      </c>
+      <c r="N13" s="3">
+        <v>11</v>
+      </c>
+      <c r="O13" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3">
+        <v>10</v>
+      </c>
+      <c r="O14" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>342</v>
+        <v>5</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3">
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3">
+        <v>7</v>
+      </c>
+      <c r="N15" s="3">
         <v>8</v>
       </c>
-      <c r="G15" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O15" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>307</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="3">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3">
         <v>1</v>
       </c>
-      <c r="F16" s="3">
-        <v>7</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="M16" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N16" s="3">
+        <v>9</v>
+      </c>
+      <c r="O16" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>342</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3">
+        <v>8</v>
+      </c>
+      <c r="N17" s="3">
+        <v>8</v>
+      </c>
+      <c r="O17" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>202</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3">
-        <v>4</v>
-      </c>
-      <c r="E17" s="3">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>416</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3">
-        <v>6</v>
-      </c>
-      <c r="G18" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3">
+        <v>7</v>
+      </c>
+      <c r="O18" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>218</v>
+        <v>416</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="3">
-        <v>2</v>
-      </c>
-      <c r="F19" s="3">
-        <v>4</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N19" s="3">
+        <v>6</v>
+      </c>
+      <c r="O19" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>300</v>
+        <v>218</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="3">
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3">
         <v>2</v>
       </c>
-      <c r="F20" s="3">
+      <c r="M20" s="3">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
+        <v>6</v>
+      </c>
+      <c r="O20" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3">
         <v>3</v>
       </c>
-      <c r="G20" s="3">
+      <c r="J21" s="3">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3">
+        <v>2</v>
+      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>300</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3">
+        <v>2</v>
+      </c>
+      <c r="M22" s="3">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="O22" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>209</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3">
         <v>1</v>
       </c>
-      <c r="E21" s="3">
+      <c r="L23" s="3">
         <v>2</v>
       </c>
-      <c r="F21" s="3">
+      <c r="M23" s="3">
         <v>2</v>
       </c>
-      <c r="G21" s="3">
+      <c r="N23" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="O23" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>79</v>
-      </c>
-      <c r="C22" s="3">
-        <v>2</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>147</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3">
-        <v>3</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>411</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="3">
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3">
+        <v>2</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3">
+        <v>1</v>
+      </c>
+      <c r="N24" s="3">
         <v>4</v>
       </c>
-      <c r="G24" s="3">
+      <c r="O24" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="3">
-        <v>3</v>
-      </c>
+      <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="3">
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L25" s="3">
+        <v>1</v>
+      </c>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3">
+        <v>4</v>
+      </c>
+      <c r="O25" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>212</v>
+        <v>411</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3">
-        <v>2</v>
-      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3">
+        <v>4</v>
+      </c>
+      <c r="N26" s="3">
+        <v>4</v>
+      </c>
+      <c r="O26" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1</v>
-      </c>
-      <c r="D27" s="3">
-        <v>2</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="3">
+      <c r="G27" s="3"/>
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3">
+        <v>2</v>
+      </c>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3">
+        <v>2</v>
+      </c>
+      <c r="O27" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="3">
-        <v>2</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="3">
+      <c r="G28" s="3"/>
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3">
+        <v>1</v>
+      </c>
+      <c r="J28" s="3">
+        <v>2</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3">
+        <v>2</v>
+      </c>
+      <c r="O28" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>257</v>
+        <v>57</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="3">
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3">
+        <v>1</v>
+      </c>
+      <c r="M29" s="3">
+        <v>1</v>
+      </c>
+      <c r="N29" s="3">
+        <v>2</v>
+      </c>
+      <c r="O29" s="3">
         <v>3</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3">
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3">
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O30" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="3">
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3">
         <v>2</v>
       </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3">
+      <c r="I31" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J31" s="3"/>
+      <c r="K31" s="3">
+        <v>1</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3">
+        <v>1</v>
+      </c>
+      <c r="O31" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="3">
-        <v>1</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="3">
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3">
+        <v>1</v>
+      </c>
+      <c r="L32" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M32" s="3"/>
+      <c r="N32" s="3">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>289</v>
+        <v>91</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="3">
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3">
+        <v>2</v>
+      </c>
+      <c r="K33" s="3">
         <v>1</v>
       </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>267</v>
+        <v>70</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="3">
-        <v>2</v>
-      </c>
+      <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3">
+        <v>1</v>
+      </c>
+      <c r="K34" s="3">
+        <v>1</v>
+      </c>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3">
+        <v>1</v>
+      </c>
+      <c r="N34" s="3">
+        <v>3</v>
+      </c>
+      <c r="O34" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>183</v>
+        <v>257</v>
       </c>
       <c r="C35" s="3"/>
-      <c r="D35" s="3">
-        <v>1</v>
-      </c>
+      <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>250</v>
+        <v>16</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="3">
+      <c r="E36" s="3"/>
+      <c r="F36" s="3">
         <v>2</v>
       </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3">
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3">
         <v>1</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3">
         <v>1</v>
       </c>
-      <c r="G37" s="3">
+      <c r="J37" s="3"/>
+      <c r="K37" s="3">
+        <v>1</v>
+      </c>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3">
+        <v>1</v>
+      </c>
+      <c r="O37" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>401</v>
+        <v>84</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="3">
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3">
+        <v>1</v>
+      </c>
+      <c r="K38" s="3">
+        <v>1</v>
+      </c>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3">
         <v>2</v>
       </c>
-      <c r="G38" s="3">
+      <c r="O38" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="3">
-        <v>2</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="3">
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3">
+        <v>2</v>
+      </c>
+      <c r="O39" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>267</v>
       </c>
       <c r="C40" s="3"/>
-      <c r="D40" s="3">
-        <v>1</v>
-      </c>
+      <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3">
+        <v>2</v>
+      </c>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3">
+        <v>2</v>
+      </c>
+      <c r="O40" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>194</v>
+        <v>401</v>
       </c>
       <c r="C41" s="3"/>
-      <c r="D41" s="3">
-        <v>1</v>
-      </c>
+      <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3">
+        <v>2</v>
+      </c>
+      <c r="N41" s="3">
+        <v>2</v>
+      </c>
+      <c r="O41" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>282</v>
+        <v>183</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="3">
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3">
         <v>1</v>
       </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3">
+      <c r="L42" s="3"/>
+      <c r="M42" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N42" s="3">
+        <v>2</v>
+      </c>
+      <c r="O42" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="3">
-        <v>1</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="3">
+      <c r="G43" s="3"/>
+      <c r="H43" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I43" s="3">
+        <v>1</v>
+      </c>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3">
+        <v>1</v>
+      </c>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3">
+        <v>1</v>
+      </c>
+      <c r="O43" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="3">
-        <v>1</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
-      <c r="G44" s="3">
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M44" s="3">
+        <v>1</v>
+      </c>
+      <c r="N44" s="3">
+        <v>2</v>
+      </c>
+      <c r="O44" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>389</v>
+        <v>27</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -8292,140 +8877,395 @@
       <c r="F45" s="3">
         <v>1</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3">
+        <v>1</v>
+      </c>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3">
+        <v>1</v>
+      </c>
+      <c r="O45" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="C46" s="3"/>
-      <c r="D46" s="3">
-        <v>1</v>
-      </c>
+      <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="3">
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3">
+        <v>1</v>
+      </c>
+      <c r="O46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>196</v>
       </c>
       <c r="C47" s="3"/>
-      <c r="D47" s="3">
-        <v>1</v>
-      </c>
+      <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="3">
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3">
+        <v>1</v>
+      </c>
+      <c r="O47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>255</v>
+        <v>194</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
-      <c r="E48" s="3">
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3">
         <v>1</v>
       </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3">
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C49" s="3"/>
-      <c r="D49" s="3">
-        <v>1</v>
-      </c>
+      <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="3">
+      <c r="G49" s="3"/>
+      <c r="H49" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I49" s="3">
+        <v>1</v>
+      </c>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="3">
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3">
         <v>1</v>
       </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3">
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>134</v>
+        <v>353</v>
       </c>
       <c r="C51" s="3"/>
-      <c r="D51" s="3">
-        <v>1</v>
-      </c>
+      <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="3">
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N51" s="3">
+        <v>1</v>
+      </c>
+      <c r="O51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>353</v>
+        <v>282</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
-      <c r="F52" s="3">
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3">
         <v>1</v>
       </c>
-      <c r="G52" s="3">
+      <c r="M52" s="3"/>
+      <c r="N52" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O52" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>87</v>
-      </c>
-      <c r="C53" s="3">
-        <v>1</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3">
+      <c r="F53" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3">
+        <v>1</v>
+      </c>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>389</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3">
+        <v>1</v>
+      </c>
+      <c r="N54" s="3">
+        <v>1</v>
+      </c>
+      <c r="O54" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3">
+        <v>1</v>
+      </c>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3">
+        <v>1</v>
+      </c>
+      <c r="O55" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3">
+        <v>1</v>
+      </c>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>255</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3">
+        <v>1</v>
+      </c>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3">
+        <v>1</v>
+      </c>
+      <c r="O57" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3">
+        <v>1</v>
+      </c>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3">
+        <v>1</v>
+      </c>
+      <c r="O58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>473</v>
       </c>
-      <c r="C54" s="3">
+      <c r="B59" t="s">
+        <v>473</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>474</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3">
+        <v>3</v>
+      </c>
+      <c r="F60" s="3">
+        <v>6</v>
+      </c>
+      <c r="G60" s="3">
+        <v>2</v>
+      </c>
+      <c r="H60" s="3">
+        <v>9</v>
+      </c>
+      <c r="I60" s="3">
+        <v>20</v>
+      </c>
+      <c r="J60" s="3">
         <v>25</v>
       </c>
-      <c r="D54" s="3">
+      <c r="K60" s="3">
         <v>63</v>
       </c>
-      <c r="E54" s="3">
+      <c r="L60" s="3">
         <v>55</v>
       </c>
-      <c r="F54" s="3">
+      <c r="M60" s="3">
         <v>145</v>
       </c>
-      <c r="G54" s="3">
+      <c r="N60" s="3">
         <v>288</v>
+      </c>
+      <c r="O60" s="3">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -8435,18 +9275,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="C314" sqref="C314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.5703125" customWidth="1"/>
     <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8467,7 +9308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -8484,7 +9325,7 @@
         <v>44239.4528125</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -8501,7 +9342,7 @@
         <v>44278.438009259262</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -8518,7 +9359,7 @@
         <v>44284.932106481479</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -8535,7 +9376,7 @@
         <v>44293.833148148151</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -8552,7 +9393,7 @@
         <v>44293.849120370367</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -8569,7 +9410,7 @@
         <v>44302.417650462965</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -8586,7 +9427,7 @@
         <v>44308.390833333331</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -8603,7 +9444,7 @@
         <v>44335.441527777781</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -8620,7 +9461,7 @@
         <v>44337.427372685182</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -8637,7 +9478,7 @@
         <v>44394.778634259259</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -8654,7 +9495,7 @@
         <v>44462.757384259261</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -8671,7 +9512,7 @@
         <v>44487.70380787037</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -8688,7 +9529,7 @@
         <v>44489.441851851851</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -8705,7 +9546,7 @@
         <v>44498.725104166668</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -8722,7 +9563,7 @@
         <v>44504.562222222223</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -8739,7 +9580,7 @@
         <v>44512.558506944442</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -8756,7 +9597,7 @@
         <v>44529.622291666667</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -8773,7 +9614,7 @@
         <v>44539.648298611108</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -8790,7 +9631,7 @@
         <v>44544.66065972222</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -8807,7 +9648,7 @@
         <v>44557.615624999999</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -8824,7 +9665,7 @@
         <v>44565.409178240741</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -8841,7 +9682,7 @@
         <v>44565.429016203707</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -8858,7 +9699,7 @@
         <v>44565.616875</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -8875,7 +9716,7 @@
         <v>44573.724074074074</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -8892,7 +9733,7 @@
         <v>44575.382939814815</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -8909,7 +9750,7 @@
         <v>44586.613981481481</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -8926,7 +9767,7 @@
         <v>44587.466747685183</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -8943,7 +9784,7 @@
         <v>44588.481388888889</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>79</v>
       </c>
@@ -8960,7 +9801,7 @@
         <v>44595.609953703701</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>79</v>
       </c>
@@ -8977,7 +9818,7 @@
         <v>44596.021203703705</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>84</v>
       </c>
@@ -8994,7 +9835,7 @@
         <v>44600.485925925925</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>87</v>
       </c>
@@ -9011,7 +9852,7 @@
         <v>44603.527106481481</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>91</v>
       </c>
@@ -9028,7 +9869,7 @@
         <v>44610.56354166667</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>95</v>
       </c>
@@ -9045,7 +9886,7 @@
         <v>44613.655486111114</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -9062,7 +9903,7 @@
         <v>44614.843009259261</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -9079,7 +9920,7 @@
         <v>44617.716412037036</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>99</v>
       </c>
@@ -9096,7 +9937,7 @@
         <v>44621.374722222223</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -9113,7 +9954,7 @@
         <v>44622.491944444446</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>91</v>
       </c>
@@ -9130,7 +9971,7 @@
         <v>44627.694930555554</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -9147,7 +9988,7 @@
         <v>44631.722141203703</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -9164,7 +10005,7 @@
         <v>44638.666689814818</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>114</v>
       </c>
@@ -9181,7 +10022,7 @@
         <v>44645.463576388887</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>118</v>
       </c>
@@ -9198,7 +10039,7 @@
         <v>44648.495034722226</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>114</v>
       </c>
@@ -9215,7 +10056,7 @@
         <v>44649.50136574074</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>114</v>
       </c>
@@ -9232,7 +10073,7 @@
         <v>44649.53534722222</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>114</v>
       </c>
@@ -9249,7 +10090,7 @@
         <v>44656.806469907409</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>114</v>
       </c>
@@ -9266,7 +10107,7 @@
         <v>44659.516759259262</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>114</v>
       </c>
@@ -9283,7 +10124,7 @@
         <v>44669.760231481479</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>114</v>
       </c>
@@ -9300,7 +10141,7 @@
         <v>44671.854259259257</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>114</v>
       </c>
@@ -9317,7 +10158,7 @@
         <v>44673.095509259256</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -9334,7 +10175,7 @@
         <v>44673.468888888892</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -9351,7 +10192,7 @@
         <v>44677.692337962966</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>134</v>
       </c>
@@ -9368,7 +10209,7 @@
         <v>44681.612025462964</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>36</v>
       </c>
@@ -9385,7 +10226,7 @@
         <v>44681.614652777775</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -9402,7 +10243,7 @@
         <v>44684.641805555555</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -9419,7 +10260,7 @@
         <v>44684.652418981481</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -9436,7 +10277,7 @@
         <v>44684.923356481479</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>99</v>
       </c>
@@ -9453,7 +10294,7 @@
         <v>44685.41505787037</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>84</v>
       </c>
@@ -9470,7 +10311,7 @@
         <v>44685.627256944441</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>99</v>
       </c>
@@ -9487,7 +10328,7 @@
         <v>44686.644791666666</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -9504,7 +10345,7 @@
         <v>44686.675659722219</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>147</v>
       </c>
@@ -9521,7 +10362,7 @@
         <v>44686.741712962961</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>114</v>
       </c>
@@ -9538,7 +10379,7 @@
         <v>44686.750543981485</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>114</v>
       </c>
@@ -9555,7 +10396,7 @@
         <v>44690.516261574077</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>152</v>
       </c>
@@ -9572,7 +10413,7 @@
         <v>44690.641701388886</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>152</v>
       </c>
@@ -9589,7 +10430,7 @@
         <v>44691.661076388889</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>33</v>
       </c>
@@ -9606,7 +10447,7 @@
         <v>44691.716331018521</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>33</v>
       </c>
@@ -9623,7 +10464,7 @@
         <v>44691.72452546296</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>33</v>
       </c>
@@ -9640,7 +10481,7 @@
         <v>44691.730150462965</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>147</v>
       </c>
@@ -9657,7 +10498,7 @@
         <v>44691.788090277776</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>33</v>
       </c>
@@ -9674,7 +10515,7 @@
         <v>44692.355937499997</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>33</v>
       </c>
@@ -9691,7 +10532,7 @@
         <v>44692.364745370367</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>33</v>
       </c>
@@ -9708,7 +10549,7 @@
         <v>44697.695810185185</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>33</v>
       </c>
@@ -9725,7 +10566,7 @@
         <v>44697.701377314814</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>33</v>
       </c>
@@ -9742,7 +10583,7 @@
         <v>44698.346377314818</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>33</v>
       </c>
@@ -9759,7 +10600,7 @@
         <v>44698.352719907409</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>33</v>
       </c>
@@ -9776,7 +10617,7 @@
         <v>44698.358101851853</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>33</v>
       </c>
@@ -9793,7 +10634,7 @@
         <v>44698.368842592594</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>33</v>
       </c>
@@ -9810,7 +10651,7 @@
         <v>44698.454502314817</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>43</v>
       </c>
@@ -9827,7 +10668,7 @@
         <v>44699.007824074077</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>33</v>
       </c>
@@ -9844,7 +10685,7 @@
         <v>44699.310891203706</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>33</v>
       </c>
@@ -9861,7 +10702,7 @@
         <v>44700.302777777775</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>33</v>
       </c>
@@ -9878,7 +10719,7 @@
         <v>44700.307268518518</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>147</v>
       </c>
@@ -9895,7 +10736,7 @@
         <v>44701.70989583333</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>91</v>
       </c>
@@ -9912,7 +10753,7 @@
         <v>44701.719884259262</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>152</v>
       </c>
@@ -9929,7 +10770,7 @@
         <v>44701.758912037039</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>20</v>
       </c>
@@ -9946,7 +10787,7 @@
         <v>44705.644884259258</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>183</v>
       </c>
@@ -9963,7 +10804,7 @@
         <v>44711.514432870368</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>20</v>
       </c>
@@ -9980,7 +10821,7 @@
         <v>44711.710752314815</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>33</v>
       </c>
@@ -9997,7 +10838,7 @@
         <v>44712.362696759257</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>114</v>
       </c>
@@ -10014,7 +10855,7 @@
         <v>44712.58489583333</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>20</v>
       </c>
@@ -10031,7 +10872,7 @@
         <v>44713.724259259259</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>20</v>
       </c>
@@ -10048,7 +10889,7 @@
         <v>44714.36954861111</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>20</v>
       </c>
@@ -10065,7 +10906,7 @@
         <v>44714.374849537038</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -10082,7 +10923,7 @@
         <v>44722.54886574074</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>194</v>
       </c>
@@ -10099,7 +10940,7 @@
         <v>44724.832326388889</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>196</v>
       </c>
@@ -10116,7 +10957,7 @@
         <v>44727.504918981482</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>20</v>
       </c>
@@ -10133,7 +10974,7 @@
         <v>44727.645451388889</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>20</v>
       </c>
@@ -10150,7 +10991,7 @@
         <v>44727.841226851851</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>114</v>
       </c>
@@ -10167,7 +11008,7 @@
         <v>44729.660543981481</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>202</v>
       </c>
@@ -10184,7 +11025,7 @@
         <v>44732.473946759259</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>202</v>
       </c>
@@ -10201,7 +11042,7 @@
         <v>44732.486666666664</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>202</v>
       </c>
@@ -10218,7 +11059,7 @@
         <v>44732.493310185186</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>202</v>
       </c>
@@ -10235,7 +11076,7 @@
         <v>44732.495000000003</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>79</v>
       </c>
@@ -10252,7 +11093,7 @@
         <v>44732.936874999999</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>209</v>
       </c>
@@ -10269,7 +11110,7 @@
         <v>44739.521574074075</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>212</v>
       </c>
@@ -10286,7 +11127,7 @@
         <v>44740.642789351848</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>70</v>
       </c>
@@ -10303,7 +11144,7 @@
         <v>44742.621493055558</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>218</v>
       </c>
@@ -10337,7 +11178,7 @@
         <v>44756.621736111112</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>95</v>
       </c>
@@ -10354,7 +11195,7 @@
         <v>44756.718194444446</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>95</v>
       </c>
@@ -10371,7 +11212,7 @@
         <v>44756.966562499998</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>95</v>
       </c>
@@ -10388,7 +11229,7 @@
         <v>44756.971203703702</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>99</v>
       </c>
@@ -10405,7 +11246,7 @@
         <v>44757.675162037034</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>95</v>
       </c>
@@ -10422,7 +11263,7 @@
         <v>44759.598587962966</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>209</v>
       </c>
@@ -10439,7 +11280,7 @@
         <v>44760.957002314812</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>60</v>
       </c>
@@ -10456,7 +11297,7 @@
         <v>44762.45952546296</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>60</v>
       </c>
@@ -10473,7 +11314,7 @@
         <v>44762.466689814813</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>99</v>
       </c>
@@ -10490,7 +11331,7 @@
         <v>44762.660324074073</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>95</v>
       </c>
@@ -10507,7 +11348,7 @@
         <v>44765.46775462963</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>99</v>
       </c>
@@ -10524,7 +11365,7 @@
         <v>44769.462256944447</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>95</v>
       </c>
@@ -10541,7 +11382,7 @@
         <v>44769.648020833331</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>95</v>
       </c>
@@ -10558,7 +11399,7 @@
         <v>44773.516064814816</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>99</v>
       </c>
@@ -10575,7 +11416,7 @@
         <v>44776.979444444441</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>250</v>
       </c>
@@ -10592,7 +11433,7 @@
         <v>44780.728078703702</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>250</v>
       </c>
@@ -10609,7 +11450,7 @@
         <v>44781.72729166667</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>99</v>
       </c>
@@ -10626,7 +11467,7 @@
         <v>44782.426041666666</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>255</v>
       </c>
@@ -10643,7 +11484,7 @@
         <v>44782.459502314814</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>27</v>
       </c>
@@ -10660,7 +11501,7 @@
         <v>44782.54614583333</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>57</v>
       </c>
@@ -10677,7 +11518,7 @@
         <v>44782.721875000003</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>257</v>
       </c>
@@ -10694,7 +11535,7 @@
         <v>44784.450381944444</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>257</v>
       </c>
@@ -10711,7 +11552,7 @@
         <v>44784.452268518522</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>202</v>
       </c>
@@ -10728,7 +11569,7 @@
         <v>44784.522499999999</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>202</v>
       </c>
@@ -10745,7 +11586,7 @@
         <v>44784.524224537039</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>202</v>
       </c>
@@ -10762,7 +11603,7 @@
         <v>44784.52925925926</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>99</v>
       </c>
@@ -10779,7 +11620,7 @@
         <v>44784.673263888886</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>99</v>
       </c>
@@ -10796,7 +11637,7 @@
         <v>44785.444374999999</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>218</v>
       </c>
@@ -10813,7 +11654,7 @@
         <v>44788.785671296297</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>267</v>
       </c>
@@ -10830,7 +11671,7 @@
         <v>44789.609872685185</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>212</v>
       </c>
@@ -10847,7 +11688,7 @@
         <v>44789.716053240743</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>212</v>
       </c>
@@ -10881,7 +11722,7 @@
         <v>44791.671354166669</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>40</v>
       </c>
@@ -10898,7 +11739,7 @@
         <v>44792.694340277776</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>147</v>
       </c>
@@ -10915,7 +11756,7 @@
         <v>44792.707372685189</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>267</v>
       </c>
@@ -10932,7 +11773,7 @@
         <v>44796.452986111108</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>114</v>
       </c>
@@ -10949,7 +11790,7 @@
         <v>44799.724050925928</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>257</v>
       </c>
@@ -10966,7 +11807,7 @@
         <v>44801.932974537034</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>40</v>
       </c>
@@ -10983,7 +11824,7 @@
         <v>44804.502442129633</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>99</v>
       </c>
@@ -11000,7 +11841,7 @@
         <v>44805.502708333333</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>282</v>
       </c>
@@ -11017,7 +11858,7 @@
         <v>44805.624421296299</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>99</v>
       </c>
@@ -11034,7 +11875,7 @@
         <v>44806.69190972222</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>95</v>
       </c>
@@ -11051,7 +11892,7 @@
         <v>44811.489664351851</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>289</v>
       </c>
@@ -11068,7 +11909,7 @@
         <v>44812.70171296296</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>99</v>
       </c>
@@ -11085,7 +11926,7 @@
         <v>44819.406122685185</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>99</v>
       </c>
@@ -11102,7 +11943,7 @@
         <v>44819.426423611112</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>99</v>
       </c>
@@ -11119,7 +11960,7 @@
         <v>44823.466516203705</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>99</v>
       </c>
@@ -11136,7 +11977,7 @@
         <v>44823.948634259257</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>300</v>
       </c>
@@ -11153,7 +11994,7 @@
         <v>44824.620381944442</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>300</v>
       </c>
@@ -11170,7 +12011,7 @@
         <v>44824.757916666669</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>209</v>
       </c>
@@ -11187,7 +12028,7 @@
         <v>44826.605069444442</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>95</v>
       </c>
@@ -11204,7 +12045,7 @@
         <v>44831.432118055556</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>5</v>
       </c>
@@ -11221,7 +12062,7 @@
         <v>44833.801087962966</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>307</v>
       </c>
@@ -11238,7 +12079,7 @@
         <v>44834.732152777775</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>5</v>
       </c>
@@ -11255,7 +12096,7 @@
         <v>44837.710914351854</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>99</v>
       </c>
@@ -11272,7 +12113,7 @@
         <v>44838.537986111114</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>79</v>
       </c>
@@ -11289,7 +12130,7 @@
         <v>44839.611273148148</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>300</v>
       </c>
@@ -11306,7 +12147,7 @@
         <v>44840.476099537038</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>99</v>
       </c>
@@ -11323,7 +12164,7 @@
         <v>44840.701851851853</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>99</v>
       </c>
@@ -11340,7 +12181,7 @@
         <v>44840.703692129631</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>99</v>
       </c>
@@ -11357,7 +12198,7 @@
         <v>44840.704444444447</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>99</v>
       </c>
@@ -11374,7 +12215,7 @@
         <v>44840.707627314812</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>289</v>
       </c>
@@ -11391,7 +12232,7 @@
         <v>44840.910243055558</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>318</v>
       </c>
@@ -11408,7 +12249,7 @@
         <v>44841.414849537039</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>318</v>
       </c>
@@ -11425,7 +12266,7 @@
         <v>44841.41574074074</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>99</v>
       </c>
@@ -11442,7 +12283,7 @@
         <v>44844.383842592593</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>322</v>
       </c>
@@ -11459,7 +12300,7 @@
         <v>44845.599317129629</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>322</v>
       </c>
@@ -11476,7 +12317,7 @@
         <v>44847.913668981484</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>322</v>
       </c>
@@ -11493,7 +12334,7 @@
         <v>44848.441365740742</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>318</v>
       </c>
@@ -11510,7 +12351,7 @@
         <v>44851.455983796295</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>218</v>
       </c>
@@ -11527,7 +12368,7 @@
         <v>44852.504861111112</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>20</v>
       </c>
@@ -11544,7 +12385,7 @@
         <v>44854.510694444441</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>60</v>
       </c>
@@ -11561,7 +12402,7 @@
         <v>44858.657222222224</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>99</v>
       </c>
@@ -11578,7 +12419,7 @@
         <v>44858.788773148146</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>99</v>
       </c>
@@ -11595,7 +12436,7 @@
         <v>44858.810034722221</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>60</v>
       </c>
@@ -11612,7 +12453,7 @@
         <v>44860.410185185188</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>95</v>
       </c>
@@ -11629,7 +12470,7 @@
         <v>44861.506238425929</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>307</v>
       </c>
@@ -11646,7 +12487,7 @@
         <v>44861.515497685185</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>95</v>
       </c>
@@ -11663,7 +12504,7 @@
         <v>44861.526678240742</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>209</v>
       </c>
@@ -11680,7 +12521,7 @@
         <v>44861.865717592591</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>342</v>
       </c>
@@ -11697,7 +12538,7 @@
         <v>44862.782002314816</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>95</v>
       </c>
@@ -11714,7 +12555,7 @@
         <v>44864.722129629627</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>114</v>
       </c>
@@ -11731,7 +12572,7 @@
         <v>44865.505509259259</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>114</v>
       </c>
@@ -11748,7 +12589,7 @@
         <v>44865.629861111112</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>20</v>
       </c>
@@ -11765,7 +12606,7 @@
         <v>44865.773321759261</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>318</v>
       </c>
@@ -11782,7 +12623,7 @@
         <v>44867.501435185186</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>318</v>
       </c>
@@ -11816,7 +12657,7 @@
         <v>44867.561782407407</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>353</v>
       </c>
@@ -11850,7 +12691,7 @@
         <v>44869.532083333332</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>95</v>
       </c>
@@ -11867,7 +12708,7 @@
         <v>44869.725497685184</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>307</v>
       </c>
@@ -11884,7 +12725,7 @@
         <v>44874.473043981481</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>307</v>
       </c>
@@ -11901,7 +12742,7 @@
         <v>44874.524351851855</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>307</v>
       </c>
@@ -11918,7 +12759,7 @@
         <v>44875.508703703701</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>307</v>
       </c>
@@ -11935,7 +12776,7 @@
         <v>44875.513761574075</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>20</v>
       </c>
@@ -11952,7 +12793,7 @@
         <v>44875.693599537037</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>307</v>
       </c>
@@ -11969,7 +12810,7 @@
         <v>44875.778240740743</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>307</v>
       </c>
@@ -11986,7 +12827,7 @@
         <v>44875.842557870368</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>95</v>
       </c>
@@ -12003,7 +12844,7 @@
         <v>44876.612511574072</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>95</v>
       </c>
@@ -12020,7 +12861,7 @@
         <v>44876.730787037035</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>95</v>
       </c>
@@ -12037,7 +12878,7 @@
         <v>44876.748344907406</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>322</v>
       </c>
@@ -12054,7 +12895,7 @@
         <v>44876.787719907406</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>95</v>
       </c>
@@ -12071,7 +12912,7 @@
         <v>44879.452627314815</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>95</v>
       </c>
@@ -12088,7 +12929,7 @@
         <v>44879.675312500003</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>95</v>
       </c>
@@ -12105,7 +12946,7 @@
         <v>44879.743761574071</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>95</v>
       </c>
@@ -12139,7 +12980,7 @@
         <v>44880.602395833332</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>183</v>
       </c>
@@ -12156,7 +12997,7 @@
         <v>44880.76090277778</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>342</v>
       </c>
@@ -12173,7 +13014,7 @@
         <v>44881.806504629632</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>95</v>
       </c>
@@ -12190,7 +13031,7 @@
         <v>44882.642858796295</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>114</v>
       </c>
@@ -12207,7 +13048,7 @@
         <v>44883.622662037036</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>114</v>
       </c>
@@ -12224,7 +13065,7 @@
         <v>44883.630856481483</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>114</v>
       </c>
@@ -12241,7 +13082,7 @@
         <v>44883.765266203707</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>318</v>
       </c>
@@ -12258,7 +13099,7 @@
         <v>44886.395613425928</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>318</v>
       </c>
@@ -12292,7 +13133,7 @@
         <v>44888.524131944447</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>95</v>
       </c>
@@ -12309,7 +13150,7 @@
         <v>44888.592465277776</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>114</v>
       </c>
@@ -12326,7 +13167,7 @@
         <v>44890.006874999999</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>389</v>
       </c>
@@ -12343,7 +13184,7 @@
         <v>44890.530740740738</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>60</v>
       </c>
@@ -12377,7 +13218,7 @@
         <v>44890.696435185186</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>5</v>
       </c>
@@ -12394,7 +13235,7 @@
         <v>44893.71837962963</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>318</v>
       </c>
@@ -12411,7 +13252,7 @@
         <v>44893.735914351855</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>318</v>
       </c>
@@ -12428,7 +13269,7 @@
         <v>44893.765185185184</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>5</v>
       </c>
@@ -12445,7 +13286,7 @@
         <v>44893.767962962964</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>5</v>
       </c>
@@ -12462,7 +13303,7 @@
         <v>44893.861180555556</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>322</v>
       </c>
@@ -12479,7 +13320,7 @@
         <v>44894.360069444447</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>114</v>
       </c>
@@ -12496,7 +13337,7 @@
         <v>44895.649675925924</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>5</v>
       </c>
@@ -12513,7 +13354,7 @@
         <v>44896.444351851853</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>5</v>
       </c>
@@ -12530,7 +13371,7 @@
         <v>44896.445775462962</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>401</v>
       </c>
@@ -12547,7 +13388,7 @@
         <v>44896.452048611114</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>401</v>
       </c>
@@ -12581,7 +13422,7 @@
         <v>44896.497233796297</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>95</v>
       </c>
@@ -12598,7 +13439,7 @@
         <v>44900.429502314815</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>95</v>
       </c>
@@ -12615,7 +13456,7 @@
         <v>44900.442754629628</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>322</v>
       </c>
@@ -12632,7 +13473,7 @@
         <v>44900.462754629632</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>318</v>
       </c>
@@ -12649,7 +13490,7 @@
         <v>44900.615995370368</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>411</v>
       </c>
@@ -12683,7 +13524,7 @@
         <v>44901.517256944448</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>218</v>
       </c>
@@ -12700,7 +13541,7 @@
         <v>44901.563449074078</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>416</v>
       </c>
@@ -12717,7 +13558,7 @@
         <v>44901.640231481484</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>300</v>
       </c>
@@ -12734,7 +13575,7 @@
         <v>44901.736898148149</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>218</v>
       </c>
@@ -12751,7 +13592,7 @@
         <v>44902.489965277775</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>218</v>
       </c>
@@ -12768,7 +13609,7 @@
         <v>44902.49291666667</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>95</v>
       </c>
@@ -12785,7 +13626,7 @@
         <v>44905.905706018515</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>416</v>
       </c>
@@ -12819,7 +13660,7 @@
         <v>44907.649027777778</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>95</v>
       </c>
@@ -12836,7 +13677,7 @@
         <v>44909.642534722225</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>95</v>
       </c>
@@ -12870,7 +13711,7 @@
         <v>44909.662835648145</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>114</v>
       </c>
@@ -12887,7 +13728,7 @@
         <v>44909.689733796295</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>322</v>
       </c>
@@ -12904,7 +13745,7 @@
         <v>44911.427569444444</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>322</v>
       </c>
@@ -12921,7 +13762,7 @@
         <v>44912.652187500003</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>99</v>
       </c>
@@ -12938,7 +13779,7 @@
         <v>44914.698009259257</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>95</v>
       </c>
@@ -12955,7 +13796,7 @@
         <v>44915.399108796293</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>416</v>
       </c>
@@ -12972,7 +13813,7 @@
         <v>44915.495648148149</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>322</v>
       </c>
@@ -12989,7 +13830,7 @@
         <v>44915.705266203702</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>95</v>
       </c>
@@ -13006,7 +13847,7 @@
         <v>44915.737361111111</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>95</v>
       </c>
@@ -13023,7 +13864,7 @@
         <v>44915.751423611109</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>300</v>
       </c>
@@ -13040,7 +13881,7 @@
         <v>44916.397916666669</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>322</v>
       </c>
@@ -13057,7 +13898,7 @@
         <v>44916.434803240743</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>416</v>
       </c>
@@ -13074,7 +13915,7 @@
         <v>44917.486134259256</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>342</v>
       </c>
@@ -13091,7 +13932,7 @@
         <v>44917.488310185188</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>99</v>
       </c>
@@ -13108,7 +13949,7 @@
         <v>44917.621712962966</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>411</v>
       </c>
@@ -13125,7 +13966,7 @@
         <v>44917.77542824074</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>411</v>
       </c>
@@ -13142,7 +13983,7 @@
         <v>44918.362164351849</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>342</v>
       </c>
@@ -13159,7 +14000,7 @@
         <v>44918.516273148147</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>70</v>
       </c>
@@ -13176,7 +14017,7 @@
         <v>44920.651134259257</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>95</v>
       </c>
@@ -13193,7 +14034,7 @@
         <v>44921.405798611115</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>95</v>
       </c>
@@ -13210,7 +14051,7 @@
         <v>44921.425196759257</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>95</v>
       </c>
@@ -13227,7 +14068,7 @@
         <v>44921.426192129627</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>95</v>
       </c>
@@ -13261,7 +14102,7 @@
         <v>44921.451805555553</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>95</v>
       </c>
@@ -13278,7 +14119,7 @@
         <v>44921.454062500001</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>95</v>
       </c>
@@ -13295,7 +14136,7 @@
         <v>44921.499722222223</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>416</v>
       </c>
@@ -13329,7 +14170,7 @@
         <v>44921.694143518522</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>342</v>
       </c>
@@ -13346,7 +14187,7 @@
         <v>44921.78802083333</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>416</v>
       </c>
@@ -13363,7 +14204,7 @@
         <v>44921.804074074076</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>322</v>
       </c>
@@ -13380,7 +14221,7 @@
         <v>44922.410162037035</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>322</v>
       </c>
@@ -13414,7 +14255,7 @@
         <v>44922.453923611109</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>322</v>
       </c>
@@ -13431,7 +14272,7 @@
         <v>44922.456087962964</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>322</v>
       </c>
@@ -13448,7 +14289,7 @@
         <v>44922.499849537038</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>411</v>
       </c>
@@ -13465,7 +14306,7 @@
         <v>44922.502835648149</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>57</v>
       </c>
@@ -13482,7 +14323,7 @@
         <v>44922.504537037035</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>322</v>
       </c>
@@ -13499,7 +14340,7 @@
         <v>44922.521701388891</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>95</v>
       </c>
@@ -13550,7 +14391,7 @@
         <v>44922.649131944447</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>342</v>
       </c>
@@ -13567,7 +14408,7 @@
         <v>44922.677037037036</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>95</v>
       </c>
@@ -13584,7 +14425,7 @@
         <v>44922.702499999999</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>209</v>
       </c>
@@ -13601,7 +14442,7 @@
         <v>44922.710636574076</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>5</v>
       </c>
@@ -13618,7 +14459,7 @@
         <v>44922.735439814816</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>342</v>
       </c>
@@ -13635,7 +14476,7 @@
         <v>44922.738437499997</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>342</v>
       </c>
@@ -13652,7 +14493,7 @@
         <v>44922.738923611112</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>322</v>
       </c>
@@ -13669,7 +14510,7 @@
         <v>44922.741099537037</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>307</v>
       </c>
@@ -13704,7 +14545,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E309"/>
+  <autoFilter ref="A1:E309">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="bdcmc-040-principal"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>